--- a/my_miniproject_873117/TripAutomation.xlsx
+++ b/my_miniproject_873117/TripAutomation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Flight Name</t>
   </si>
@@ -29,6 +29,39 @@
     <t>Price</t>
   </si>
   <si>
+    <t>Air India</t>
+  </si>
+  <si>
+    <t>17:10</t>
+  </si>
+  <si>
+    <t>10:407 Nov</t>
+  </si>
+  <si>
+    <t>17h 30m</t>
+  </si>
+  <si>
+    <t>₹22,836</t>
+  </si>
+  <si>
+    <t>21:40</t>
+  </si>
+  <si>
+    <t>13h 0m</t>
+  </si>
+  <si>
+    <t>06:50</t>
+  </si>
+  <si>
+    <t>18:45</t>
+  </si>
+  <si>
+    <t>11h 55m</t>
+  </si>
+  <si>
+    <t>₹21,560</t>
+  </si>
+  <si>
     <t>Vistara</t>
   </si>
   <si>
@@ -41,40 +74,10 @@
     <t>10h 5m</t>
   </si>
   <si>
-    <t>₹19,670</t>
-  </si>
-  <si>
     <t>09:25</t>
   </si>
   <si>
     <t>8h 45m</t>
-  </si>
-  <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>5h 40m</t>
-  </si>
-  <si>
-    <t>Air India</t>
-  </si>
-  <si>
-    <t>17:10</t>
-  </si>
-  <si>
-    <t>21:5031 Oct</t>
-  </si>
-  <si>
-    <t>28h 40m</t>
-  </si>
-  <si>
-    <t>₹17,796</t>
-  </si>
-  <si>
-    <t>21:40</t>
-  </si>
-  <si>
-    <t>24h 10m</t>
   </si>
 </sst>
 </file>
@@ -184,47 +187,47 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
